--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_31.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_18_31.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33843.38977940267</v>
+        <v>6734834.566101132</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>24401.71166857278</v>
+        <v>1751349.433132896</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24401.71166857278</v>
+        <v>1751349.433132896</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1496257279.936248</v>
+        <v>60587154.77466589</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13582.92594641013</v>
+        <v>1455832.710001239</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25789.98839838531</v>
+        <v>2683725.324325519</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37997.05085036047</v>
+        <v>3911617.9386498</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50842.663256363</v>
+        <v>5098659.017730017</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>63688.27566236551</v>
+        <v>6285700.096810236</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>76533.88806836803</v>
+        <v>7472741.17589045</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>89379.50047437054</v>
+        <v>8659782.254970662</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>102225.1128803731</v>
+        <v>9846823.334050873</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>115413.8196426888</v>
+        <v>10977783.87731822</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>128065.3246687371</v>
+        <v>12171002.63012389</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>140716.8296947854</v>
+        <v>13364221.38292955</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>153368.3347208338</v>
+        <v>14557440.13573522</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>166019.8397468821</v>
+        <v>15750658.88854088</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>179292.2460255586</v>
+        <v>16883070.05735552</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193194.6931455978</v>
+        <v>17956920.55889207</v>
       </c>
     </row>
   </sheetData>
@@ -27037,28 +27037,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>276</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>254.0000000000268</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>825</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
